--- a/SeleniumFramework/src/test/resources/Testdata.xlsx
+++ b/SeleniumFramework/src/test/resources/Testdata.xlsx
@@ -3,14 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshith P\Desktop\Manual Testing\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA86882C-4C74-49AC-B005-935A6C746D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{557BBD5F-C644-487F-AA0E-01449F2AE533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="2" r:id="rId1"/>
@@ -19,7 +14,8 @@
     <sheet name="Flipkart" sheetId="1" r:id="rId4"/>
     <sheet name="Dataprovider" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:M8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
